--- a/Reports/SKI_B_CVT.xlsx
+++ b/Reports/SKI_B_CVT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75AEC25-9189-4F17-9EB6-E7DDE4B00D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584808F-6827-4CB2-9545-47FC7DD8F83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43845" yWindow="1305" windowWidth="13320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="16" r:id="rId1"/>
@@ -18,18 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Отчет ЦТ'!$A$1:$R$61</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1" iterateDelta="252"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" refMode="R1C1" iterateDelta="252"/>
 </workbook>
 </file>
 
@@ -488,6 +477,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,84 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,7 +883,7 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+      <selection activeCell="L33" sqref="L33:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,116 +907,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="str">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="I3" s="48" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="I4" s="48" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="47" t="str">
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="I5" s="48" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="I5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="47" t="s">
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="I6" s="48" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="I6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="47" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -1036,28 +1025,28 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
@@ -1066,18 +1055,18 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="47" t="s">
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
@@ -1086,18 +1075,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="47" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
@@ -1106,16 +1095,16 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
@@ -1124,18 +1113,18 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44" t="s">
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
@@ -1144,16 +1133,16 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
@@ -1162,16 +1151,16 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
@@ -1182,249 +1171,249 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="41" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="41" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
@@ -1465,434 +1454,434 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29" t="s">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29" t="s">
+      <c r="I32" s="35"/>
+      <c r="J32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="29"/>
+      <c r="K32" s="35"/>
       <c r="L32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29" t="s">
+      <c r="N32" s="35"/>
+      <c r="O32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="29"/>
+      <c r="P32" s="35"/>
       <c r="Q32" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
     </row>
     <row r="34" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
     </row>
     <row r="38" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
     </row>
     <row r="39" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
     </row>
     <row r="40" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
     </row>
     <row r="41" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
     </row>
     <row r="42" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
     </row>
     <row r="43" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
     </row>
     <row r="44" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
     </row>
     <row r="45" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
     </row>
     <row r="46" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
     </row>
     <row r="47" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
     </row>
     <row r="49" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
     </row>
     <row r="50" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
     </row>
     <row r="51" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
     </row>
     <row r="52" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
@@ -1948,59 +1937,59 @@
     </row>
     <row r="56" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
     </row>
     <row r="57" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -2034,22 +2023,22 @@
       <c r="K60" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
       <c r="O60" s="12"/>
       <c r="P60" s="8"/>
     </row>
     <row r="61" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2063,58 +2052,73 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="133">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A16:Q18"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="H19:P20"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="H21:P22"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B23:G24"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="B25:G26"/>
-    <mergeCell ref="H25:P26"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="H27:P28"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="K58:P58"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="B49:G50"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B47:G48"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:P46"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="B37:G38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P38"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="B35:G36"/>
     <mergeCell ref="H35:I36"/>
@@ -2129,73 +2133,58 @@
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:N34"/>
     <mergeCell ref="O33:P34"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="B39:G40"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="B37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B43:G44"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B47:G48"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="B51:G52"/>
-    <mergeCell ref="H51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="B49:G50"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="K58:P58"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B23:G24"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="B25:G26"/>
+    <mergeCell ref="H25:P26"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="H27:P28"/>
+    <mergeCell ref="A16:Q18"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="H19:P20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="H21:P22"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.4960629921259843" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>

--- a/Reports/SKI_B_CVT.xlsx
+++ b/Reports/SKI_B_CVT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584808F-6827-4CB2-9545-47FC7DD8F83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A186E43-997C-46D2-A7D9-5342B8A6269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43845" yWindow="1305" windowWidth="13320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="16" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Отчет ЦТ'!$A$1:$R$61</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1" iterateDelta="252"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateDelta="252"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>установки</t>
   </si>
@@ -161,6 +172,12 @@
   </si>
   <si>
     <t xml:space="preserve">Дата </t>
+  </si>
+  <si>
+    <t>Максимальное значение пямой ход</t>
+  </si>
+  <si>
+    <t>Минимальное значение обратный ход</t>
   </si>
 </sst>
 </file>
@@ -425,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -523,6 +540,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:L34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,15 +1334,15 @@
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
@@ -1331,89 +1351,89 @@
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
@@ -1480,408 +1500,408 @@
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
       <c r="H32" s="35" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I32" s="35"/>
       <c r="J32" s="35" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="35" t="s">
+      <c r="M32" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35" t="s">
+      <c r="N32" s="36"/>
+      <c r="O32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="35"/>
+      <c r="P32" s="36"/>
       <c r="Q32" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
     </row>
     <row r="34" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
     </row>
     <row r="36" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
     </row>
     <row r="38" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
     </row>
     <row r="39" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
     </row>
     <row r="40" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
     </row>
     <row r="41" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
     </row>
     <row r="42" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
     </row>
     <row r="43" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
     </row>
     <row r="44" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
     </row>
     <row r="45" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
     </row>
     <row r="46" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
     </row>
     <row r="47" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
     </row>
     <row r="48" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
     </row>
     <row r="49" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
     </row>
     <row r="51" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
     </row>
     <row r="52" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
@@ -1937,59 +1957,59 @@
     </row>
     <row r="56" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -2023,22 +2043,22 @@
       <c r="K60" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
       <c r="O60" s="12"/>
       <c r="P60" s="8"/>
     </row>
     <row r="61" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>

--- a/Reports/SKI_B_CVT.xlsx
+++ b/Reports/SKI_B_CVT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29115"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A186E43-997C-46D2-A7D9-5342B8A6269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CD8185-5A2B-4B43-99AC-97189DB0884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Отчет ЦТ'!$A$1:$R$61</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1" iterateDelta="252"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>установки</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Максимальное значение пямой ход</t>
   </si>
   <si>
-    <t>Минимальное значение обратный ход</t>
+    <t>Максимальное значение обратный ход</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -438,11 +438,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -491,8 +504,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -500,98 +603,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,7 +925,7 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45:N46"/>
+      <selection activeCell="O32" sqref="O32:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,116 +949,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20" t="str">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="I3" s="22" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="I3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23" t="str">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="47" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="I5" s="22" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23" t="s">
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="I6" s="22" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="I6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23" t="s">
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -1045,28 +1067,28 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
@@ -1075,18 +1097,18 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
@@ -1095,18 +1117,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="23" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
@@ -1115,16 +1137,16 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
     </row>
     <row r="12" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
@@ -1133,18 +1155,18 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="24" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
     </row>
     <row r="13" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
@@ -1153,16 +1175,16 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
@@ -1171,16 +1193,16 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
@@ -1191,249 +1213,249 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
@@ -1474,434 +1496,438 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33" t="s">
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
     </row>
     <row r="32" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35" t="s">
+      <c r="I32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="35"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36" t="s">
+      <c r="N32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="36"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
     </row>
     <row r="40" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
     </row>
     <row r="41" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
     </row>
     <row r="42" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
     </row>
     <row r="43" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
     </row>
     <row r="45" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
     </row>
     <row r="49" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
     </row>
     <row r="51" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
     </row>
     <row r="52" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
@@ -1957,59 +1983,59 @@
     </row>
     <row r="56" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
     </row>
     <row r="57" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -2043,22 +2069,22 @@
       <c r="K60" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
       <c r="O60" s="12"/>
       <c r="P60" s="8"/>
     </row>
     <row r="61" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2071,7 +2097,146 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="133">
+  <mergeCells count="150">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A16:Q18"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="H19:P20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="H21:P22"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B23:G24"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="B25:G26"/>
+    <mergeCell ref="H25:P26"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="H27:P28"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="B35:G36"/>
+    <mergeCell ref="J35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="B33:G34"/>
+    <mergeCell ref="J33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="B37:G38"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B47:G48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:P46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="B49:G50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:J58"/>
     <mergeCell ref="K58:P58"/>
@@ -2083,128 +2248,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="K57:P57"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="B51:G52"/>
-    <mergeCell ref="H51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="B49:G50"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B47:G48"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B43:G44"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="B39:G40"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="B37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="J35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="B33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="J33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B23:G24"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="B25:G26"/>
-    <mergeCell ref="H25:P26"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="H27:P28"/>
-    <mergeCell ref="A16:Q18"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="H19:P20"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="H21:P22"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.4960629921259843" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>

--- a/Reports/SKI_B_CVT.xlsx
+++ b/Reports/SKI_B_CVT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72767227-1119-4F86-AA84-5CB144074075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096CF287-1733-4DE5-AD2C-44FF5E4DEEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2670" windowWidth="13320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28680" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЦТ" sheetId="16" r:id="rId1"/>
@@ -170,8 +170,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -581,9 +581,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,93 +658,153 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,71 +829,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,8 +1182,8 @@
   </sheetPr>
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A106" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A59" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62:P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,28 +1200,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72" t="str">
+      <c r="M1" s="86"/>
+      <c r="N1" s="38" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
@@ -1240,98 +1243,98 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74" t="str">
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74" t="s">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
@@ -1342,16 +1345,16 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -1362,16 +1365,16 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1382,18 +1385,18 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74" t="s">
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
@@ -1404,18 +1407,18 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74" t="s">
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
@@ -1426,16 +1429,16 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -1446,18 +1449,18 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73" t="s">
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -1468,16 +1471,16 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
@@ -1488,16 +1491,16 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
@@ -1508,243 +1511,243 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
     </row>
     <row r="17" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
     </row>
     <row r="18" spans="1:19" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
     </row>
     <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
     </row>
     <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
     </row>
     <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
     </row>
     <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
     </row>
     <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
     </row>
     <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
     </row>
     <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
     </row>
     <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
     </row>
     <row r="28" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="37"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
@@ -1788,428 +1791,428 @@
       <c r="E31" s="66"/>
       <c r="F31" s="66"/>
       <c r="G31" s="67"/>
-      <c r="H31" s="79" t="s">
+      <c r="H31" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="81"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
       <c r="Q31" s="25"/>
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="77" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="78"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="77" t="s">
+      <c r="L32" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="82"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="77" t="s">
+      <c r="M32" s="64"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="78"/>
+      <c r="P32" s="50"/>
       <c r="Q32" s="25"/>
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
       <c r="Q33" s="25"/>
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
       <c r="Q34" s="25"/>
       <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
       <c r="Q35" s="25"/>
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
       <c r="Q36" s="25"/>
       <c r="S36" s="24"/>
     </row>
     <row r="37" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
       <c r="Q37" s="25"/>
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
       <c r="Q38" s="25"/>
       <c r="S38" s="24"/>
     </row>
     <row r="39" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
       <c r="Q39" s="25"/>
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
       <c r="Q40" s="25"/>
       <c r="S40" s="24"/>
     </row>
     <row r="41" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
       <c r="Q41" s="25"/>
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
       <c r="Q42" s="25"/>
       <c r="S42" s="24"/>
     </row>
     <row r="43" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
       <c r="Q43" s="25"/>
       <c r="S43" s="24"/>
     </row>
     <row r="44" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
       <c r="Q44" s="25"/>
       <c r="S44" s="24"/>
     </row>
     <row r="45" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
       <c r="Q45" s="25"/>
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
       <c r="Q46" s="25"/>
       <c r="S46" s="24"/>
     </row>
     <row r="47" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
       <c r="Q47" s="25"/>
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
       <c r="Q48" s="25"/>
       <c r="S48" s="24"/>
     </row>
     <row r="49" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
       <c r="Q49" s="25"/>
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
       <c r="Q50" s="25"/>
       <c r="S50" s="24"/>
     </row>
     <row r="51" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
       <c r="Q51" s="25"/>
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
       <c r="Q52" s="25"/>
       <c r="S52" s="24"/>
     </row>
@@ -2270,59 +2273,59 @@
     </row>
     <row r="56" spans="1:19" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
     </row>
     <row r="57" spans="1:19" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
     </row>
     <row r="58" spans="1:19" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
     </row>
     <row r="59" spans="1:19" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
@@ -2356,22 +2359,22 @@
       <c r="K60" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
       <c r="O60" s="10"/>
       <c r="P60" s="6"/>
     </row>
     <row r="61" spans="1:19" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -2384,28 +2387,28 @@
     </row>
     <row r="62" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72" t="s">
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72" t="str">
+      <c r="M62" s="86"/>
+      <c r="N62" s="38" t="str">
         <f>IF(D67="","",D67)</f>
         <v/>
       </c>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
@@ -2427,98 +2430,98 @@
     </row>
     <row r="64" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
       <c r="H64" s="18"/>
-      <c r="I64" s="69" t="s">
+      <c r="I64" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="69"/>
-      <c r="P64" s="69"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
     </row>
     <row r="65" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="69" t="s">
+      <c r="I65" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69" t="str">
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N65" s="69"/>
-      <c r="O65" s="69"/>
-      <c r="P65" s="69"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
     </row>
     <row r="66" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
-      <c r="B66" s="69" t="s">
+      <c r="B66" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="69" t="s">
+      <c r="I66" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69" t="s">
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N66" s="69"/>
-      <c r="O66" s="69"/>
-      <c r="P66" s="69"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
     </row>
     <row r="67" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
-      <c r="B67" s="68" t="s">
+      <c r="B67" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="69" t="s">
+      <c r="I67" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="69" t="s">
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N67" s="69"/>
-      <c r="O67" s="69"/>
-      <c r="P67" s="69"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
     </row>
     <row r="68" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
@@ -2529,16 +2532,16 @@
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="18"/>
-      <c r="I68" s="69" t="s">
+      <c r="I68" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-      <c r="P68" s="69"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
     </row>
     <row r="69" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
@@ -2549,16 +2552,16 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
-      <c r="I69" s="69" t="s">
+      <c r="I69" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="69"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
@@ -2569,18 +2572,18 @@
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="18"/>
-      <c r="I70" s="69" t="s">
+      <c r="I70" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="69" t="s">
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N70" s="69"/>
-      <c r="O70" s="69"/>
-      <c r="P70" s="69"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
@@ -2591,18 +2594,18 @@
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="18"/>
-      <c r="I71" s="68" t="s">
+      <c r="I71" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="69" t="s">
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N71" s="69"/>
-      <c r="O71" s="69"/>
-      <c r="P71" s="69"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
@@ -2613,16 +2616,16 @@
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="18"/>
-      <c r="I72" s="68" t="s">
+      <c r="I72" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="68"/>
-      <c r="N72" s="68"/>
-      <c r="O72" s="68"/>
-      <c r="P72" s="68"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="74"/>
+      <c r="P72" s="74"/>
     </row>
     <row r="73" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
@@ -2633,18 +2636,18 @@
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="68" t="s">
+      <c r="I73" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="68" t="s">
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
     </row>
     <row r="74" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
@@ -2655,16 +2658,16 @@
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="18"/>
-      <c r="I74" s="68" t="s">
+      <c r="I74" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
     </row>
     <row r="75" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
@@ -2675,16 +2678,16 @@
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="18"/>
-      <c r="I75" s="70" t="s">
+      <c r="I75" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="70"/>
-      <c r="O75" s="70"/>
-      <c r="P75" s="70"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
+      <c r="O75" s="75"/>
+      <c r="P75" s="75"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
@@ -2695,243 +2698,243 @@
       <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="45"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="68"/>
+      <c r="Q77" s="68"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
-      <c r="Q78" s="45"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="68"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="68"/>
     </row>
     <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
-      <c r="Q79" s="45"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="68"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="68"/>
     </row>
     <row r="80" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
     </row>
     <row r="81" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="70"/>
+      <c r="L81" s="70"/>
+      <c r="M81" s="70"/>
+      <c r="N81" s="70"/>
+      <c r="O81" s="70"/>
+      <c r="P81" s="70"/>
     </row>
     <row r="82" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="50"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="50"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="50"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="70"/>
+      <c r="L82" s="70"/>
+      <c r="M82" s="70"/>
+      <c r="N82" s="70"/>
+      <c r="O82" s="70"/>
+      <c r="P82" s="70"/>
     </row>
     <row r="83" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="46"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="70"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="70"/>
+      <c r="M83" s="70"/>
+      <c r="N83" s="70"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="70"/>
     </row>
     <row r="84" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="52"/>
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
     </row>
     <row r="85" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="46"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="52"/>
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="52"/>
-      <c r="P85" s="52"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="55"/>
     </row>
     <row r="86" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="60"/>
     </row>
     <row r="87" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="37"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="60"/>
+      <c r="N87" s="60"/>
+      <c r="O87" s="60"/>
+      <c r="P87" s="60"/>
     </row>
     <row r="88" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="52"/>
-      <c r="L88" s="52"/>
-      <c r="M88" s="52"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="52"/>
-      <c r="P88" s="52"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
     </row>
     <row r="89" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="37"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52"/>
-      <c r="K89" s="52"/>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="52"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="55"/>
+      <c r="P89" s="55"/>
     </row>
     <row r="90" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B90" s="12"/>
@@ -2974,408 +2977,408 @@
       <c r="E92" s="66"/>
       <c r="F92" s="66"/>
       <c r="G92" s="67"/>
-      <c r="H92" s="59" t="s">
+      <c r="H92" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="61"/>
+      <c r="I92" s="80"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="80"/>
+      <c r="M92" s="80"/>
+      <c r="N92" s="80"/>
+      <c r="O92" s="80"/>
+      <c r="P92" s="81"/>
       <c r="Q92" s="22"/>
     </row>
     <row r="93" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="58" t="s">
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="78"/>
       <c r="K93" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L93" s="62" t="s">
+      <c r="L93" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="M93" s="63"/>
-      <c r="N93" s="64"/>
-      <c r="O93" s="58" t="s">
+      <c r="M93" s="83"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="P93" s="58"/>
+      <c r="P93" s="78"/>
       <c r="Q93" s="23"/>
     </row>
     <row r="94" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="41"/>
-      <c r="O94" s="30"/>
-      <c r="P94" s="30"/>
-      <c r="Q94" s="38"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="76"/>
     </row>
     <row r="95" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="42"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="30"/>
-      <c r="P95" s="30"/>
-      <c r="Q95" s="38"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="76"/>
     </row>
     <row r="96" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="30"/>
-      <c r="P96" s="30"/>
-      <c r="Q96" s="38"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="76"/>
     </row>
     <row r="97" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="42"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="44"/>
-      <c r="O97" s="30"/>
-      <c r="P97" s="30"/>
-      <c r="Q97" s="38"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="76"/>
     </row>
     <row r="98" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="40"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="30"/>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="38"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="76"/>
     </row>
     <row r="99" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="30"/>
-      <c r="P99" s="30"/>
-      <c r="Q99" s="38"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="31"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="76"/>
     </row>
     <row r="100" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="40"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="38"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="76"/>
     </row>
     <row r="101" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="42"/>
-      <c r="M101" s="43"/>
-      <c r="N101" s="44"/>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="38"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="Q101" s="76"/>
     </row>
     <row r="102" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="30"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="30"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="38"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="30"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="76"/>
     </row>
     <row r="103" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="30"/>
-      <c r="L103" s="42"/>
-      <c r="M103" s="43"/>
-      <c r="N103" s="44"/>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="38"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="76"/>
     </row>
     <row r="104" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="40"/>
-      <c r="N104" s="41"/>
-      <c r="O104" s="30"/>
-      <c r="P104" s="30"/>
-      <c r="Q104" s="38"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
+      <c r="Q104" s="76"/>
     </row>
     <row r="105" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="42"/>
-      <c r="M105" s="43"/>
-      <c r="N105" s="44"/>
-      <c r="O105" s="30"/>
-      <c r="P105" s="30"/>
-      <c r="Q105" s="38"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="31"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
+      <c r="Q105" s="76"/>
     </row>
     <row r="106" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="40"/>
-      <c r="N106" s="41"/>
-      <c r="O106" s="30"/>
-      <c r="P106" s="30"/>
-      <c r="Q106" s="38"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="43"/>
+      <c r="P106" s="43"/>
+      <c r="Q106" s="76"/>
     </row>
     <row r="107" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="30"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="43"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="30"/>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="38"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="31"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="33"/>
+      <c r="O107" s="43"/>
+      <c r="P107" s="43"/>
+      <c r="Q107" s="76"/>
     </row>
     <row r="108" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="40"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="30"/>
-      <c r="P108" s="30"/>
-      <c r="Q108" s="38"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="43"/>
+      <c r="Q108" s="76"/>
     </row>
     <row r="109" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="44"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="44"/>
-      <c r="O109" s="30"/>
-      <c r="P109" s="30"/>
-      <c r="Q109" s="38"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="31"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="33"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
+      <c r="Q109" s="76"/>
     </row>
     <row r="110" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="40"/>
-      <c r="N110" s="41"/>
-      <c r="O110" s="30"/>
-      <c r="P110" s="30"/>
-      <c r="Q110" s="38"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="85"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="43"/>
+      <c r="P110" s="43"/>
+      <c r="Q110" s="76"/>
     </row>
     <row r="111" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="31"/>
-      <c r="L111" s="42"/>
-      <c r="M111" s="43"/>
-      <c r="N111" s="44"/>
-      <c r="O111" s="30"/>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="38"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="85"/>
+      <c r="L111" s="31"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="43"/>
+      <c r="P111" s="43"/>
+      <c r="Q111" s="76"/>
     </row>
     <row r="112" spans="2:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="30"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="40"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="30"/>
-      <c r="P112" s="30"/>
-      <c r="Q112" s="38"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="43"/>
+      <c r="P112" s="43"/>
+      <c r="Q112" s="76"/>
     </row>
     <row r="113" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="36"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="30"/>
-      <c r="L113" s="42"/>
-      <c r="M113" s="43"/>
-      <c r="N113" s="44"/>
-      <c r="O113" s="30"/>
-      <c r="P113" s="30"/>
-      <c r="Q113" s="38"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="33"/>
+      <c r="O113" s="43"/>
+      <c r="P113" s="43"/>
+      <c r="Q113" s="76"/>
     </row>
     <row r="114" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
@@ -3432,61 +3435,61 @@
     </row>
     <row r="117" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="34"/>
-      <c r="L117" s="34"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="34"/>
-      <c r="O117" s="34"/>
-      <c r="P117" s="34"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="35"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
+      <c r="N117" s="35"/>
+      <c r="O117" s="35"/>
+      <c r="P117" s="35"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="34"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="34"/>
-      <c r="O118" s="34"/>
-      <c r="P118" s="34"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="35"/>
+      <c r="L118" s="35"/>
+      <c r="M118" s="35"/>
+      <c r="N118" s="35"/>
+      <c r="O118" s="35"/>
+      <c r="P118" s="35"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="34"/>
-      <c r="L119" s="34"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="34"/>
-      <c r="O119" s="34"/>
-      <c r="P119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
+      <c r="N119" s="35"/>
+      <c r="O119" s="35"/>
+      <c r="P119" s="35"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -3522,23 +3525,23 @@
       <c r="K121" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L121" s="28"/>
-      <c r="M121" s="28"/>
-      <c r="N121" s="28"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="36"/>
+      <c r="N121" s="36"/>
       <c r="O121" s="10"/>
       <c r="P121" s="6"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
@@ -3553,6 +3556,216 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="234">
+    <mergeCell ref="L121:N121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:J117"/>
+    <mergeCell ref="K117:P117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="K118:P118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:J119"/>
+    <mergeCell ref="K119:P119"/>
+    <mergeCell ref="B112:G113"/>
+    <mergeCell ref="O112:P113"/>
+    <mergeCell ref="B108:G109"/>
+    <mergeCell ref="O108:P109"/>
+    <mergeCell ref="Q108:Q109"/>
+    <mergeCell ref="B106:G107"/>
+    <mergeCell ref="O106:P107"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="Q112:Q113"/>
+    <mergeCell ref="B110:G111"/>
+    <mergeCell ref="O110:P111"/>
+    <mergeCell ref="Q110:Q111"/>
+    <mergeCell ref="H106:J107"/>
+    <mergeCell ref="H108:J109"/>
+    <mergeCell ref="H110:J111"/>
+    <mergeCell ref="H112:J113"/>
+    <mergeCell ref="B98:G99"/>
+    <mergeCell ref="O98:P99"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="B96:G97"/>
+    <mergeCell ref="O96:P97"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="H96:J97"/>
+    <mergeCell ref="H98:J99"/>
+    <mergeCell ref="B104:G105"/>
+    <mergeCell ref="O104:P105"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="B100:G101"/>
+    <mergeCell ref="O100:P101"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="B102:G103"/>
+    <mergeCell ref="O102:P103"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="H100:J101"/>
+    <mergeCell ref="H102:J103"/>
+    <mergeCell ref="H104:J105"/>
+    <mergeCell ref="L96:N97"/>
+    <mergeCell ref="L98:N99"/>
+    <mergeCell ref="L100:N101"/>
+    <mergeCell ref="L102:N103"/>
+    <mergeCell ref="A77:Q79"/>
+    <mergeCell ref="B80:G81"/>
+    <mergeCell ref="H80:P81"/>
+    <mergeCell ref="B82:G83"/>
+    <mergeCell ref="H82:P83"/>
+    <mergeCell ref="B94:G95"/>
+    <mergeCell ref="O94:P95"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="B84:G85"/>
+    <mergeCell ref="H84:P85"/>
+    <mergeCell ref="B86:G87"/>
+    <mergeCell ref="H86:P87"/>
+    <mergeCell ref="B88:G89"/>
+    <mergeCell ref="H88:P89"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="H92:P92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H94:J95"/>
+    <mergeCell ref="L94:N95"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A16:Q18"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="H19:P20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="H21:P22"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B23:G24"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="B25:G26"/>
+    <mergeCell ref="H25:P26"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="H27:P28"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="B47:G48"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="L41:N42"/>
+    <mergeCell ref="L43:N44"/>
+    <mergeCell ref="L45:N46"/>
+    <mergeCell ref="L47:N48"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="O45:P46"/>
+    <mergeCell ref="H45:J46"/>
+    <mergeCell ref="H47:J48"/>
+    <mergeCell ref="B35:G36"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="B33:G34"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="H33:J34"/>
+    <mergeCell ref="H35:J36"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="B37:G38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="H39:J40"/>
+    <mergeCell ref="L33:N34"/>
+    <mergeCell ref="L35:N36"/>
+    <mergeCell ref="L37:N38"/>
+    <mergeCell ref="L39:N40"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="B49:G50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="H49:J50"/>
+    <mergeCell ref="H51:J52"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="L49:N50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
     <mergeCell ref="L104:N105"/>
     <mergeCell ref="L106:N107"/>
     <mergeCell ref="L108:N109"/>
@@ -3577,216 +3790,6 @@
     <mergeCell ref="D66:G66"/>
     <mergeCell ref="I66:L66"/>
     <mergeCell ref="M66:P66"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:P57"/>
-    <mergeCell ref="B51:G52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="B49:G50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="H49:J50"/>
-    <mergeCell ref="H51:J52"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="L49:N50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="B33:G34"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="H33:J34"/>
-    <mergeCell ref="H35:J36"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="B39:G40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="B37:G38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="H39:J40"/>
-    <mergeCell ref="L33:N34"/>
-    <mergeCell ref="L35:N36"/>
-    <mergeCell ref="L37:N38"/>
-    <mergeCell ref="L39:N40"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="B43:G44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="B47:G48"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="L41:N42"/>
-    <mergeCell ref="L43:N44"/>
-    <mergeCell ref="L45:N46"/>
-    <mergeCell ref="L47:N48"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="H45:J46"/>
-    <mergeCell ref="H47:J48"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B23:G24"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="B25:G26"/>
-    <mergeCell ref="H25:P26"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="H27:P28"/>
-    <mergeCell ref="H31:P31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="A16:Q18"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="H19:P20"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="H21:P22"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="A77:Q79"/>
-    <mergeCell ref="B80:G81"/>
-    <mergeCell ref="H80:P81"/>
-    <mergeCell ref="B82:G83"/>
-    <mergeCell ref="H82:P83"/>
-    <mergeCell ref="B94:G95"/>
-    <mergeCell ref="O94:P95"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="B84:G85"/>
-    <mergeCell ref="H84:P85"/>
-    <mergeCell ref="B86:G87"/>
-    <mergeCell ref="H86:P87"/>
-    <mergeCell ref="B88:G89"/>
-    <mergeCell ref="H88:P89"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="H92:P92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H94:J95"/>
-    <mergeCell ref="L94:N95"/>
-    <mergeCell ref="B98:G99"/>
-    <mergeCell ref="O98:P99"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="B96:G97"/>
-    <mergeCell ref="O96:P97"/>
-    <mergeCell ref="Q96:Q97"/>
-    <mergeCell ref="H96:J97"/>
-    <mergeCell ref="H98:J99"/>
-    <mergeCell ref="B104:G105"/>
-    <mergeCell ref="O104:P105"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="B100:G101"/>
-    <mergeCell ref="O100:P101"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="B102:G103"/>
-    <mergeCell ref="O102:P103"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="H100:J101"/>
-    <mergeCell ref="H102:J103"/>
-    <mergeCell ref="H104:J105"/>
-    <mergeCell ref="L96:N97"/>
-    <mergeCell ref="L98:N99"/>
-    <mergeCell ref="L100:N101"/>
-    <mergeCell ref="L102:N103"/>
-    <mergeCell ref="O108:P109"/>
-    <mergeCell ref="Q108:Q109"/>
-    <mergeCell ref="B106:G107"/>
-    <mergeCell ref="O106:P107"/>
-    <mergeCell ref="Q106:Q107"/>
-    <mergeCell ref="Q112:Q113"/>
-    <mergeCell ref="B110:G111"/>
-    <mergeCell ref="O110:P111"/>
-    <mergeCell ref="Q110:Q111"/>
-    <mergeCell ref="H106:J107"/>
-    <mergeCell ref="H108:J109"/>
-    <mergeCell ref="H110:J111"/>
-    <mergeCell ref="H112:J113"/>
-    <mergeCell ref="L121:N121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:J117"/>
-    <mergeCell ref="K117:P117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:J118"/>
-    <mergeCell ref="K118:P118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:J119"/>
-    <mergeCell ref="K119:P119"/>
-    <mergeCell ref="B112:G113"/>
-    <mergeCell ref="O112:P113"/>
-    <mergeCell ref="B108:G109"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="1.49606299212598" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId1"/>
